--- a/Multiknapsack/M1_N5_T6_a25_reformulation.xlsx
+++ b/Multiknapsack/M1_N5_T6_a25_reformulation.xlsx
@@ -443,7 +443,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.009999990463256836</v>
+        <v>0.016000032424926758</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -466,7 +466,7 @@
         <v>1.3389101977763563e-5</v>
       </c>
       <c r="D3">
-        <v>0.013000011444091797</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -489,7 +489,7 @@
         <v>0.042758849389955784</v>
       </c>
       <c r="D4">
-        <v>0.029999971389770508</v>
+        <v>0.016000032424926758</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -512,7 +512,7 @@
         <v>0.025545364871906524</v>
       </c>
       <c r="D5">
-        <v>0.023999929428100586</v>
+        <v>0.016000032424926758</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -535,7 +535,7 @@
         <v>0.00762460847858615</v>
       </c>
       <c r="D6">
-        <v>0.009999990463256836</v>
+        <v>0.017999887466430664</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -558,7 +558,7 @@
         <v>3.931985378932179e-5</v>
       </c>
       <c r="D7">
-        <v>0.012000083923339844</v>
+        <v>0.015000104904174805</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>0.0009471666268609284</v>
       </c>
       <c r="D8">
-        <v>0.011999845504760742</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="F8">
         <v>20</v>
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="D9">
-        <v>0.009999990463256836</v>
+        <v>0.0010001659393310547</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -627,7 +627,7 @@
         <v>0.045293226783235316</v>
       </c>
       <c r="D10">
-        <v>0.029000043869018555</v>
+        <v>0.018999814987182617</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -650,7 +650,7 @@
         <v>0.045756882210881415</v>
       </c>
       <c r="D11">
-        <v>0.015000104904174805</v>
+        <v>0.015999794006347656</v>
       </c>
       <c r="F11">
         <v>20</v>
